--- a/DOWNLOADS/EDITAIS/U_180223_E_900312025_07-10-2025_09h00m/U_180223_E_900312025_07-10-2025_09h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_180223_E_900312025_07-10-2025_09h00m/U_180223_E_900312025_07-10-2025_09h00m_master.xlsx
@@ -103,34 +103,34 @@
     <t>Controladora Controladora Tipo: Video Wall Controlador 2x2, Resolução De Entrada: Minima. 1920 X 1080p, 3840 X 2160p, Resolução De Saída: Miníma 1920 X 180p,, Conexão De Entrada: Minimo.: 01 Dvi E 01 Hdmi, Conexão De Saída: Minimo: 04 Hdmi, Voltagem: Bivolt</t>
   </si>
   <si>
-    <t>Forno; Domestico, de Mesa; Microondas; Em Aco Inox, Na Cor Prata, Porta: Vidro, Puxador e Painel; Eletrico; Medindo No Minimo (330x530x420)mm (axlxp); Capacidade 32 Litros; 10 Niveis de Potencia; Display Digital, Relogio, Luz Interna, Teclas Pre-programadas; Prato Giratorio; Voltagem 110 V, Potencia Minima de 1500w; Com Garantia Minima de 12 Meses Apos a Entrega; Em Conformidade Com Todas As Normas Exigidas Vigentes;</t>
-  </si>
-  <si>
-    <t>Televisao; a Cores; Tela Qled, Categoria Crystal Uhd; de 50 Polegadas; Com Resolucao de 3.840 x 2.160p, Uhd, 4k; Diagonal Visual Aprox. 127 Cm; Com Comando de Voz Em Portugues do Brasil e Ingles (eua), Wi-fi Integrado, Smart Tv, Wifi; Espelhamento de Audio, Google Assistant e Alexa Integrados, Acesso Remoto, Desligamento Automatico; Conexoes de Entrada:3 Entradas Hdmi, 2 Entradas Usb, 1 Entrada de Composto, Bluetooth; Conexoes de Saida: 1 Saida de Audio Digital; Com Recepcao para Tv Digital; Sistema de Cores Mega Contraste, Dinamica de Alto Alcance, Pqi 2100, Potencializador de Contraste, Hlg; Controle Remoto Padrao do Fabricante; Voltagem Ac 100-240v 50/60hz; Consumo Aproximado Maximo 145 W; Medindo Aproximadamente Com Suporte 1120 x 685 x 230mm e Sem Suporte 1120x 650 x 26 Mm; Pesando No Maximo 17 Kg Com Embalagem; Com Garantia Minima de 12 Meses; Manual Em Portugues;</t>
-  </si>
-  <si>
-    <t>Fogao Industrial; Modelo de Piso, Sobre Pes; Com Estrutura Em Aco Inox Aisi 304; Alimentacaoa Gas Natural (gn); Pressao de Utilizacao 2,1kpa/ 210 Mmca; Com 04 Queimadores; 02Queimadores Simples Tipo Cachimbo e 02 Queimadores Duplos Tipo Coroa Em Pintura TermoResistente; Ferro Fundido; Valvula Reguladora de Pressao; 04 Grelhas Em Ferro Fundido, Removíveis e Com Acabamento Em Pintura Termo Resistente; Medindo (400 x 400) Mm; ChapaSuperior (tampo) Com Espessura Mínima de 1/16" Em Aço Inox Aisi 304; Bandejas ColetorasEm Aço Inox Chapa 20 Com Puxador; Grade Inferior para Panelas Em Perfil "u" Em Aço InoxChapa 20; Tubo de Alimentacao Em Alumínio Sem Costura, Terminal de Acoplamento Em TuboMetalico Flexivel; Torneira Dos Queimadores 3/8"x3/8" Reforçadas Em Latao Cromado; FornoCom Dimensões Mínimas de (540x310x660)mm e Queimador Dotado de Dispositivo Supervisorde Chama; Paredes, Piso Externo e Teto Em Inox Chapa 18, Paredes Internas e Piso RemovívelEm Inox Aisi 430; Porta Em Chapa de Aço Inox e Puxador Em Baquelite; Sensor deTemperatura Fixado Próximo Ao Queimador P/ Acionamento Da Válvula de Segurança;Acompanham 02 Bandejas Corrediças Executadas Em Gradeado de Aço Inox, IsolamentoTérmico; Base Com 04 Pés Em Perfil "l" Com Sapatas Reguláveis Constituídas de Base Metálicae Ponteira Maciça; Com Garantia Minima de 12 Meses a Partir Da Data de Entrega;</t>
-  </si>
-  <si>
-    <t>Analisador de Composicao Corporal; Analise Segmentada de Impedancia Bioeletrica de 8pontos; Mensuracao de Peso e Detalhamento Da Composicao Corporal, Com Capacidade de 250kg; Display: Lcd 800x480 Mm Color./ Sensivel Ao Toque. Dimens. Aprox. 460x680x1020 Cm. Peso Aprox. 2o Kg; Frequencia: 5khz, 50khz e 250khz e Com Memoria para Armazenamento de 100 Mil Exames; Capacidade de Geracao de Relatorio Impresso de Dados; Impressora; Bivolt; Garantia 12 Meses. Instalacao, Treinamento e Assistencia Tecnica.;</t>
-  </si>
-  <si>
-    <t>Camera Fotografica Profissional; Camera Fotografica Digital Dslr Mirrorless; Processador DigicX, Resolucao de 24.2 Megapixel,sensibilidade Iso Foto 100-32000, Video 100-12800; Sensor22.3 x 14,9mm (aps-c); Capacidade de Gravacao Em Video de 4k 30p | Full Hd 120p, Tempode Gravacao de Ate 1 Hora; Saida Hdmi, Cartao de Memoria Padrao Sd | Sdhc | Sdxc(compativel Com Uhs-i); Sistema de Foco Automatico Dual Pixel Cmos Af Ii,ate 651 Posicoes deAf; Visor Eletronico Oled Com Aproximadamente 2.360.000 Pontos; Tela Lcd Articulada de 3,0"| 1.620.000 Pontos - Articulada; Conexoes Sem Fio Por Wi-fi de 2.4 Ghz e Bluetooth; Formatosde Arquivo Jpeg, Heif, Raw (cr3, 14 Bit Raw), Mp4; Microfone Estereo Com Entrada paraMicrofone Externo; Com Lente Rf-s 18-45mm;</t>
-  </si>
-  <si>
-    <t>Scanner de Impressao Digital; para Captura e Leitura de Impressao Digital, Leitor Biometrico; Sistema Optico, Resolucao 500 Dpi, Rejeição a Imagens Latentes, Tempo Máximo de Verificação (1:1) Até 2 Seg; Interface Usb 2.0, Medindo Aproximadamente 16 x 16 Mm (lxc), 8-bit Escala de Cinza (256 Níveis de Cinza); Compativel Com Windows (xp, 7, 8, 10 ) Linux, Área de Captura e Leitura Através do Prisma de Vidro; Com Software para Tratamento (sdk do Leitor) Compativel Com o Equipamento; Garantia de 12 Meses;</t>
-  </si>
-  <si>
-    <t>Mesa Auxiliar para Escritorio; Tampo Em Mdf; Revestido Em Laminado Melaminico; Na CorCarvalho Prata; Acabamento Das Bordas Em Pvc Na Mesma Cor do Tampo; FormatoRetangular; Medindo (1400 x 700)mm; Espessura Minima de 40 Mm; Na Altura de 750mm;Estrutura Em Mdf; Formada Por Paineis Laterais Estruturais; Chapas Com Espessura Minima de15mm; Com Eletrocalhas para Passagem de Fiacao (eletr./telef./log.); Com SapatasNiveladoras de Aco; Estrutura Com Revestimento Em Laminado Melaminico; Com GaveteiroAcoplado de 3 Gavetas; Com Painel Frontal Na Cor do Tampo; Garantia Minima de 12 Meses;Fabricada de Acordo Com As Normas Nbr/abnt Vigentes;</t>
-  </si>
-  <si>
-    <t>Suporte para Televisor; de Parede, para Tvs Lcd, Led, Plasma, Smart e 3d; De23 Ate 66Polegadas; Furacao Vesa: 200x200, 200x300, 200x400, 300x200,300x300, 300x400,400x200, 400x300, 400x400mm; Em Aco Carbono; Com Pintura Eletrostatica e TratamentoAnticorrosivo; Na Cor Preta; Com Capacidade de Peso Ate 60 Kg; Dimensoes MaximasComprimento Das Barras de Fixacao Na Parede: 400mm e 456 Mm Da Barra de Encaixe Da Tv;Fixacao 4 Pontos; Fornecido Com Trava de Seguranca, Kit de Parafusos, Manual de Instalacao,Garantia Minina de 12 Meses;</t>
-  </si>
-  <si>
-    <t>Televisao; a Cores; Com Conversor Integrado Isdb-tb; Tela 4k Uhd; de 55 Polegadas; Com Resolucao de 4k, 3840 x 2160 Pixels; 139,7 Cm Diagonal; Smart Tv Com Assistente de Voz,Espelhamento de Tela (celular e Pc), Hdr, Wifi e Bluetooth; 3 Entradas Hdmi, 1 Entrada Usb, 1Entrada de Rf, 1entrada Ethernet (lan); Saida de Audio Digital (otica Ou Hdmi Arc); ComRecepcao para Canais Digitais; Sistema de Cores Ntsc, Pal-m, Isdb-tb; Controle Remoto ComComando de Voz; Voltagem Bivolt (127/220 V); Medindo Aproximadamente (123 x 75 x 22)Cm, Com Base; Pesando No Maximo Aproximadamente 17kg; Com Garantia Minima de 12Meses; Manual Em Em Portugues; Fornecido Com Controle Remoto, Baterias para ControleRemoto e Cabo de Forca;</t>
-  </si>
-  <si>
-    <t>Controlador de Video Wall; Monitores: Min. de 2x2; Resolucao de Entrada: Min. 1920 x 1080p,3840 x 2160p; Resolucao de Saida: Min. 1920 x 1080p, 4k; Conexao de Entrada Min.: 01 Dvi e01 Hdmi; Conexao de Saida Min.: 04 Hdmi, 01 Audio de 3,5mm (p2); Plug de Entrada: Min. 16Bits; Plug de Saida: Min. 24 Bits; Voltagem: Bivolt; Compatibilidade: Monitores, Bloco deVideo, Tv Lcd/plasma/led Ou Projetores; Dimensoes Aprox. 25 x 2,5 x 10,5 Cm (lxaxp); PrazoMin. de Garantia de 06 Meses;</t>
+    <t>Forno; Domestico, de Mesa; Microondas; Em Aço Inox, Na Cor Prata, Porta: Vidro, Puxador e Painel; Eletrico; Medindo No Minimo (330x530x420)mm (axlxp); Capacidade 32 Litros; 10 Níveis de Potencia; Características Adicionais: Relógio, Luz Interna, Teclas Pre-Programadas, Prato Giratório; Voltagem 110 V; Potencial Mínimo de 1500w; Garantia Mínima de 12 Meses após a Entrega; Em Conformidade Com Todas As Normas Exigidas Vigentes;</t>
+  </si>
+  <si>
+    <t>Televisor; Tela QLED, Categoria Crystal UHD, 50 Polegadas, Full HD, 4K, Smart TV, Wifi, Wi-Fi Integrated, Google Assistant e Alexa Integrados, Espelhamento de Audio, Controle Remoto, Bivolt; Tamanho Tela: 50; Tensão: Bivolt; Características Adicionais: Smart TV, Full HD, Entradas HDMI/USB, Conversor DI, Tipo Tela: LED; Alimentação: Bivolt; Conexões de Entrada: HDMI, USB; Conexões de Saída: 1 Saída de Áudio; Garantia 12 Meses;</t>
+  </si>
+  <si>
+    <t>Fogão Industrial; Modelo: Piso Sobre Peso; Alimentação: Gás Natural (G-n); Pressão de Utilização: 2,1 Kpa/210 Mmca; 04 Queimadores; 02 Queimadores Simples Tipo Cachimbo e 02 Queimadores Duplos Tipo Coroa; Estrutura em Aço Inox AISI 304; Alimentação em Gas Natural; Grelhas de Ferro Fundido 40cm x 40cm; 04 Queimadores; Cubo de Água; Disponibilidade de Air Exit; Capacidade de 400x400mm; Bordas Eleituros; F Inox 18; Rot, Ru, 10i; Garantia 12 Meses;</t>
+  </si>
+  <si>
+    <t>Aparelho Analisador de Composição Corporal; Método: Bioimpedância; Função: Massa Celular Corporal, Extracelular, Magra, Gorda; Funções Básicas: Massa Corporal, Tx Metabólica Basal, Água Corp, Total, Água Intracelular, Extracelular, Relação ECM/Bcm; Configuração: Display LCD 800x480; Capacidade de 250Kg; Detalhamento da Composição Corporal; Com Recursos de Monitor Envio; Garantia 12 Meses;</t>
+  </si>
+  <si>
+    <t>Câmera Fotográfica Digital; Tipo: Autofoco; Tipo Visor: LCD Sensível Ao Toque; Formato Gravação Imagem: MPEG-4; Tipo Modo de Gravação: UHD 4K; Resolução Máxima: 26 Megapixels; Tipo Memória: SD, SDHC, SDXC; Resolução Mínima: 24 Megapixels; Alimentação: Bateria; Sensor Imagem: CMOS APS-C-M; Acessórios: Microfone Shotgun, Tripé, Bateria, Alça, Estojo; Monitor: Tela LCD Sensível Ao Toque, 3.0" LCD Articulada; Conexões: HDMI, USB, RF; Garantia 12 Meses;</t>
+  </si>
+  <si>
+    <t>Leitor Biométrico; Tipo: Móvel; Componentes: Sensor Ótico, Leitor Biométrico; Capacidade: À Partir De 500 Digitais; Alimentação: 12 Vdc/30 W(Automático) E 110/220V; Aplicação: Identificação Pessoas Através De Impressão Digital; Interface: USB 2.0; Resolução: 500 DPI; Conectores: Para Carga Veicular; Compatibilidade: Android; Sata; Garantia 12 Meses;</t>
+  </si>
+  <si>
+    <t>Mesa Auxiliar Para Escritorio; Material Primário Tampão: MDF; Revestimento: Laminado Melaminico; Cor: Carvão Prata; Estrutura: Tubo Aço, Acabamento Epóxi; Tampo: Madeira Aglomerada; Altura 0,75m; Largura 1,40m; Profundidade 0,60m; Espessura das Gavetas 30mm; 3 Gavetas de Aço em Trilhos; Garantia 12 Meses;</t>
+  </si>
+  <si>
+    <t>Suporte Para TV; Material: Aço; Tipo: Parede Articulado; Tamanho: Para TV até 65"; Acabamento Superficial: Pintura Eletrostática; Furo VESA 200x200, 200x300, 300x200, 300x300; Cor: Preto; Cabeamento: 4 Pontos; Manual de Instalação; Garantia 12 Meses;</t>
+  </si>
+  <si>
+    <t>Televisão 55 Polegadas; Modelo: Integ. ISDB-TB; Tamanho Tela: 55; Tensão: 110/220V; Cor: Preta; Características: Smart TV, 4K, Wifi, Entradas HDMI/USB, Conversor, Tipo Tela: LED Touch Screen; Controle Remoto; Conexões: HDMI, USB, RF, Ethernet; Garantia 12 Meses;</t>
+  </si>
+  <si>
+    <t>Controlador Video Wall 2x2; Tipo: Video Wall Controlador 2x2; Resolução de Entrada: Mínima 1920x1080p, 3840x2160p; Resolução de Saída: Mínima 1920x1080p, 4K; Conexão de Entrada: DVI, HDMI; Conexão de Saída: HDMI; Bivolt; Conexões: 4 HDMI, 1 Áudio 3,5mm; Garantia 12 Meses.</t>
   </si>
   <si>
     <t>Unidade</t>
